--- a/biology/Botanique/Parc_de_Näsi/Parc_de_Näsi.xlsx
+++ b/biology/Botanique/Parc_de_Näsi/Parc_de_Näsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_de_N%C3%A4si</t>
+          <t>Parc_de_Näsi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Parc de Näsi (en finnois : Näsinpuisto) est un parc du quartier de Finlayson à Tampere en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Parc de Näsi (en finnois : Näsinpuisto) est un parc du quartier de Finlayson à Tampere en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_de_N%C3%A4si</t>
+          <t>Parc_de_Näsi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Näsinpuisto est situé entre l'extrémité septentrionale du parc Hämeenpuisto et le lac Näsijärvi.
 Le parc est bordé au Nord par la voie ferrée Seinäjoki–Oulu et par la voie ferrée Tampere–Pori.
